--- a/Premier_Livrable/Dossier_du_premier_livrable/1.Analyse_des_besoins/Organisation/3.GANTT.xlsx
+++ b/Premier_Livrable/Dossier_du_premier_livrable/1.Analyse_des_besoins/Organisation/3.GANTT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j-lbz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j-lbz\Downloads\sae3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5240AE-BCE3-46EF-844E-CFFA0DAFA27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8330C29D-7F7B-4C17-9D1B-1757436F5E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="-60" windowWidth="14400" windowHeight="7290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
   <si>
     <t>Conception</t>
   </si>
@@ -54,21 +54,9 @@
     <t>Choix de l'ide pour un développement en php et mysql</t>
   </si>
   <si>
-    <t>Réaliser la maquette de la page web</t>
-  </si>
-  <si>
     <t>Coder les pages web</t>
   </si>
   <si>
-    <t>Coder les algorithmes de simulation</t>
-  </si>
-  <si>
-    <t>Créer la base de données</t>
-  </si>
-  <si>
-    <t>Créer le serveur</t>
-  </si>
-  <si>
     <t>Proposer des questions et solutions aux besoins du client</t>
   </si>
   <si>
@@ -78,9 +66,6 @@
     <t>Faire la documentation technique</t>
   </si>
   <si>
-    <t>Faire des scénario</t>
-  </si>
-  <si>
     <t>Faire la conception architecturale</t>
   </si>
   <si>
@@ -147,15 +132,6 @@
     <t>P.2</t>
   </si>
   <si>
-    <t>P.3</t>
-  </si>
-  <si>
-    <t>P.4</t>
-  </si>
-  <si>
-    <t>P.5</t>
-  </si>
-  <si>
     <t>T.1</t>
   </si>
   <si>
@@ -174,9 +150,6 @@
     <t>Toute la durée de P</t>
   </si>
   <si>
-    <t>P.1 à P.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nom de la tache </t>
   </si>
   <si>
@@ -204,7 +177,28 @@
     <t>T.2, S.2</t>
   </si>
   <si>
-    <t>S.1,A.7</t>
+    <t>S.3</t>
+  </si>
+  <si>
+    <t>Faire la maquette non détaillée</t>
+  </si>
+  <si>
+    <t>Faire des scénarios</t>
+  </si>
+  <si>
+    <t>S.4</t>
+  </si>
+  <si>
+    <t>Faire la conception détaillée</t>
+  </si>
+  <si>
+    <t>Faire le logo</t>
+  </si>
+  <si>
+    <t>S.3,S.4</t>
+  </si>
+  <si>
+    <t>A.7, S.1</t>
   </si>
 </sst>
 </file>
@@ -302,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -320,6 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU26"/>
+  <dimension ref="A1:AU25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA25" sqref="AA25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -680,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>3</v>
@@ -693,7 +688,7 @@
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="12" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I1">
         <v>1</v>
@@ -797,17 +792,8 @@
       <c r="AP1">
         <v>34</v>
       </c>
-      <c r="AQ1">
-        <v>35</v>
-      </c>
-      <c r="AR1">
-        <v>36</v>
-      </c>
-      <c r="AS1">
-        <v>37</v>
-      </c>
-      <c r="AT1" s="14" t="s">
-        <v>53</v>
+      <c r="AQ1" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.75">
@@ -815,53 +801,53 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="AT2" s="14"/>
+      <c r="AQ2" s="14"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.75">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -869,7 +855,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="AT3" s="14"/>
+      <c r="AQ3" s="14"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.75">
       <c r="A4" s="2"/>
@@ -877,26 +863,26 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S4" s="3"/>
-      <c r="AT4" s="14"/>
+      <c r="AQ4" s="14"/>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.75">
       <c r="A5" s="2"/>
@@ -904,55 +890,55 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="13"/>
       <c r="W5" s="13"/>
-      <c r="AT5" s="14"/>
+      <c r="AQ5" s="14"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.75">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3">
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F6" s="3">
         <v>4</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="W6" s="3"/>
-      <c r="AT6" s="14"/>
+      <c r="AQ6" s="14"/>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.75">
       <c r="A7" s="2"/>
@@ -960,76 +946,76 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AT7" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="AQ7" s="14"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.75">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3">
         <v>5</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y8" s="13"/>
-      <c r="AT8" s="14"/>
+      <c r="AQ8" s="14"/>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.75">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1064,386 +1050,355 @@
       <c r="AN9" s="3"/>
       <c r="AO9" s="3"/>
       <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
       <c r="AU9" s="13"/>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.75">
       <c r="A10" s="1"/>
       <c r="G10" s="14"/>
-      <c r="AT10" s="14"/>
+      <c r="AQ10" s="14"/>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.75">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F11" s="5">
         <v>5</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT11" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="AQ11" s="14"/>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.75">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D12" s="5">
         <v>2</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F12" s="5">
         <v>6</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Z12" s="5"/>
-      <c r="AT12" s="14"/>
+      <c r="AQ12" s="14"/>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.75">
-      <c r="A13" s="1"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="5">
+        <v>6</v>
+      </c>
       <c r="G13" s="14"/>
-      <c r="AT13" s="14"/>
+      <c r="H13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z13" s="17"/>
+      <c r="AQ13" s="14"/>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.75">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="5">
+        <v>6</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z14" s="5"/>
+      <c r="AQ14" s="14"/>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.75">
+      <c r="A15" s="1"/>
+      <c r="G15" s="14"/>
+      <c r="AQ15" s="14"/>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.75">
+      <c r="A16" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7">
         <v>3</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="7">
-        <v>6</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="Y14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AT14" s="14"/>
-    </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.75">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="E16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="7">
+        <v>7</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="AA16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AQ16" s="14"/>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7">
         <v>3</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="7">
-        <v>7</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AT15" s="14"/>
-    </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.75">
-      <c r="A16" s="1"/>
-      <c r="G16" s="14"/>
-      <c r="AT16" s="14"/>
-    </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.75">
-      <c r="A17" s="8" t="s">
+      <c r="E17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="7">
+        <v>8</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="9">
-        <v>8</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
-      <c r="AT17" s="14"/>
-    </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.75">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="9">
-        <v>5</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="9">
-        <v>8</v>
-      </c>
+      <c r="I17" s="13"/>
+      <c r="AD17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AQ17" s="14"/>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="A18" s="1"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="9"/>
-      <c r="AT18" s="14"/>
-    </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.75">
-      <c r="A19" s="8"/>
+      <c r="AQ18" s="14"/>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="A19" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="B19" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="9">
-        <v>5</v>
-      </c>
       <c r="E19" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F19" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="AG19" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="AH19" s="9"/>
       <c r="AI19" s="9"/>
-      <c r="AT19" s="14"/>
-    </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.75">
+      <c r="AJ19" s="9"/>
+      <c r="AK19" s="9"/>
+      <c r="AQ19" s="14"/>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.75">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D20" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F20" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AT20" s="14"/>
-    </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.75">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="9">
+        <v>35</v>
+      </c>
+      <c r="AG20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+      <c r="AQ20" s="14"/>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="A21" s="1"/>
+      <c r="G21" s="14"/>
+      <c r="AQ21" s="14"/>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="A22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="11">
         <v>2</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="9">
-        <v>8</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE21" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF21" s="9"/>
-      <c r="AT21" s="14"/>
-    </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.75">
-      <c r="A22" s="1"/>
+      <c r="E22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="11">
+        <v>10</v>
+      </c>
       <c r="G22" s="14"/>
-      <c r="AT22" s="14"/>
-    </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.75">
-      <c r="A23" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="H22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM22" s="11"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="14"/>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D23" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F23" s="11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ23" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK23" s="11"/>
-      <c r="AL23" s="11"/>
-      <c r="AM23" s="11"/>
-      <c r="AN23" s="11"/>
-      <c r="AT23" s="14"/>
-    </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.75">
+        <v>37</v>
+      </c>
+      <c r="AN23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO23" s="11"/>
+      <c r="AP23" s="13"/>
+      <c r="AQ23" s="14"/>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.75">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D24" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F24" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ24" s="14"/>
+      <c r="AS24" s="13"/>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="A25" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="AO24" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP24" s="11"/>
-      <c r="AQ24" s="11"/>
-      <c r="AT24" s="14"/>
-    </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.75">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="11">
-        <v>2</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="11">
-        <v>11</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR25" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS25" s="11"/>
-      <c r="AT25" s="14"/>
-    </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.75">
-      <c r="A26" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
